--- a/Auto_concat_video_and_update_sheet/main_folder/temp.xlsx
+++ b/Auto_concat_video_and_update_sheet/main_folder/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,138 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>"E:\HP Mini (Tractor 1)\Tuần mới\ĐÃ UP\755EKD\755EKD.mp4"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>F:\OUTPUT Tractor\755EKD_Tuan_tractor_ghep.mp4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>"E:\HP Mini (Tractor 1)\Tuần mới\ĐÃ UP\754AKE\754AKE co thoai.mp4"</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>F:\OUTPUT Tractor\754AKE co thoai_Tuan_tractor_ghep.mp4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>"E:\HP Mini (Tractor 1)\ĐÃ UP\V372GD\V372GD.mp4"</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>F:\OUTPUT Tractor\V372GD_Tuan_tractor_ghep.mp4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>"E:\HP Mini (Tractor 1)\Tuần mới\ĐÃ UP\724AKD\724AKD thoại .mp4"</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>F:\OUTPUT Tractor\724AKD thoại _Tuan_tractor_ghep.mp4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>"E:\HP Mini (Tractor 1)\Tuần mới\ĐÃ UP\734AGB\734AGB.mp4"</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>F:\OUTPUT Tractor\734AGB_Tuan_tractor_ghep.mp4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>"E:\HP Mini (Tractor 1)\ĐÃ UP\V345\F345C thu âm.mp4"</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>F:\OUTPUT Tractor\F345C thu âm_Tuan_tractor_ghep.mp4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
